--- a/input_public/threshold_definitions/refugee_combinations_JIAF.xlsx
+++ b/input_public/threshold_definitions/refugee_combinations_JIAF.xlsx
@@ -13,15 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="edu" sheetId="1" r:id="rId1"/>
-    <sheet name="nfi" sheetId="2" r:id="rId2"/>
+    <sheet name="shelter" sheetId="2" r:id="rId2"/>
     <sheet name="health" sheetId="3" r:id="rId3"/>
-    <sheet name="capacity" sheetId="4" r:id="rId4"/>
+    <sheet name="ios" sheetId="4" r:id="rId4"/>
     <sheet name="fsl" sheetId="5" r:id="rId5"/>
     <sheet name="protection" sheetId="6" r:id="rId6"/>
     <sheet name="wash" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">wash!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">wash!$A$1:$E$37</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -422,7 +422,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -569,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,8 +743,8 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,7 +1773,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,7 +2415,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:E37"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input_public/threshold_definitions/refugee_combinations_JIAF.xlsx
+++ b/input_public/threshold_definitions/refugee_combinations_JIAF.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15150" windowHeight="4560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15150" windowHeight="4560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="edu" sheetId="1" r:id="rId1"/>
     <sheet name="shelter" sheetId="2" r:id="rId2"/>
     <sheet name="health" sheetId="3" r:id="rId3"/>
-    <sheet name="ios" sheetId="4" r:id="rId4"/>
+    <sheet name="capacity_gap" sheetId="4" r:id="rId4"/>
     <sheet name="fsl" sheetId="5" r:id="rId5"/>
     <sheet name="protection" sheetId="6" r:id="rId6"/>
     <sheet name="wash" sheetId="8" r:id="rId7"/>
@@ -581,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1395,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
